--- a/public/contenido-sig/archivos/SubdirecciÃ³n TÃ©cnica/Procedimiento para Seguimiento TÃ©cnico de Proyectos Vinculados y Autogenerados/Bitacora de proyecto.xlsx
+++ b/public/contenido-sig/archivos/SubdirecciÃ³n TÃ©cnica/Procedimiento para Seguimiento TÃ©cnico de Proyectos Vinculados y Autogenerados/Bitacora de proyecto.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +101,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -252,15 +258,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,25 +295,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -310,13 +319,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>177799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -355,53 +364,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200027</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="11 Imagen" descr="IPN.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="200027" y="590551"/>
-          <a:ext cx="809624" cy="647699"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -410,7 +381,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -431,6 +402,44 @@
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>557555</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="3 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="57150"/>
+          <a:ext cx="462305" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -725,324 +734,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:K33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="F8" s="15" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="F5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="12"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="12"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="12"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="12"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="12"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="12"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="12"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="12"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="B7:J7"/>
+  <mergeCells count="5">
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="J33:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;RF-ST-BIT_PROY</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
